--- a/jumbled_text/conditions.xlsx
+++ b/jumbled_text/conditions.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srujan\Desktop\Project\jumbled_sentences\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
@@ -24,23 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>corrAns</t>
   </si>
   <si>
-    <t>options</t>
-  </si>
-  <si>
     <t>Q : The Titanic was the largest ship in the world at that time.</t>
   </si>
   <si>
     <t>R : She was sailing on her maiden voyage from Southampton to New York with more than two thousand passengers and crew.</t>
   </si>
   <si>
-    <t>(a) PQRS    (b) SQRP   (c) QRPS   (d) QSPR</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -68,31 +57,6 @@
     <t xml:space="preserve"> S : The biggest disaster of this kind ever recorded was that of the Titanic on 14 April, 1912.</t>
   </si>
   <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="MathJax_Main"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> : More than fifteen hundred lives were lost.</t>
-    </r>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>P : But the first invention to which their discoveries were applied was a bomb.</t>
   </si>
   <si>
@@ -105,56 +69,6 @@
     <t>S : It is with this dread that scientists regard the first use to which their greatest discovery was put.</t>
   </si>
   <si>
-    <t>(a) PQRS     (b) SQPR   (c) QPRS     (d) RSQP</t>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="MathJax_Main"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> : The release of atomic energy is the greatest achievement which science has yet attained.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="MathJax_Main"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> : However, the scientists are gratified by the numerous applications of atomic energy for peaceful and constructive purpose.</t>
-    </r>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>P : If everybody starts running after his own point of view without caring for others, civilization will soon perish.</t>
   </si>
   <si>
@@ -167,55 +81,6 @@
     <t>S : What is essential to live happily in this world is a peaceful coexistence to live and let others live.</t>
   </si>
   <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="MathJax_Main"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> : Human beings have the most common trait of airing their individual views and opinions.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="MathJax_Main"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> : A rigid and blind self-justification, though a common human weakness, will lead nowhere.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(a) PRQS      (b) QPSR       (c) RQPS
-(d) SRPQ
-</t>
-  </si>
-  <si>
     <t>P : In eastern Himalayas, the rainfall ranges from 125 to 300 cm; in Assam from 178 to 305 cm.</t>
   </si>
   <si>
@@ -228,57 +93,6 @@
     <t>S : It is largely a humid tropical region with two periods of rainfall; the winter rains come from the west and the summer rains are brought by the monsoon winds.</t>
   </si>
   <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="MathJax_Main"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> :The north-eastern region presents a diverse system of habitats, ranging from tropical rain forests to alpine meadows.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="MathJax_Main"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> : The winter temperature in Shillong, for example, varies from 4°C to 24° C; in Gangtok from 9°C to 23°C.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(a) QRSP       (b) SPRQ     (c) PQRS     (d) RSQP
-</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>P : First, he fastens a strong piece of rope around his ankles then he puts his hands around the smooth tree trunk and grips its lower part with his bare feet.</t>
   </si>
   <si>
@@ -291,58 +105,53 @@
     <t>S : When he is ready to start, he gives a jerk and moves his feet higher up the trunks then another jerk and moves his hands.</t>
   </si>
   <si>
-    <t>(a) PRSQ     (b) SQPR     (c) QPRS      (d) RQPS</t>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="MathJax_Main"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> : The coconuts are usually picked before they are quite ripe, to stop them from falling to the ground or into the water.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="MathJax_Main"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> : Like this , in a series of jerks, first, feet and then by hands, he goes right to the top of the tree taking the rope with him.</t>
-    </r>
+    <t>S6 : More than fifteen hundred lives were lost.</t>
+  </si>
+  <si>
+    <t>S1 : The release of atomic energy is the greatest achievement which science has yet attained.</t>
+  </si>
+  <si>
+    <t>S6 : However, the scientists are gratified by the numerous applications of atomic energy for peaceful and constructive purpose.</t>
+  </si>
+  <si>
+    <t>S1 : Human beings have the most common trait of airing their individual views and opinions.</t>
+  </si>
+  <si>
+    <t>S6 : A rigid and blind self-justification, though a common human weakness, will lead nowhere.</t>
+  </si>
+  <si>
+    <t>S1 :The north-eastern region presents a diverse system of habitats, ranging from tropical rain forests to alpine meadows.</t>
+  </si>
+  <si>
+    <t>S6 : The winter temperature in Shillong, for example, varies from 4°C to 24° C; in Gangtok from 9°C to 23°C.</t>
+  </si>
+  <si>
+    <t>S1 : The coconuts are usually picked before they are quite ripe, to stop them from falling to the ground or into the water.</t>
+  </si>
+  <si>
+    <t>S6 : Like this , in a series of jerks, first, feet and then by hands, he goes right to the top of the tree taking the rope with him.</t>
+  </si>
+  <si>
+    <t>['s', 'q', 'r', 'p']</t>
+  </si>
+  <si>
+    <t>['q', 'p', 'r', 's']</t>
+  </si>
+  <si>
+    <t>['q', 'p', 's', 'r']</t>
+  </si>
+  <si>
+    <t>['s', 'p', 'r', 'q']</t>
+  </si>
+  <si>
+    <t>['r', 'q', 'p', 's']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -356,20 +165,15 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="MathJax_Math-italic"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="MathJax_Main"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,16 +196,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -698,182 +499,162 @@
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="141.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="89.25">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="63.75">
-      <c r="A3" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="76.5">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="126" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="89.25">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="89.25">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15">
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15">
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
